--- a/comp_inst.xlsx
+++ b/comp_inst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA290D0-E30C-4CB8-B265-AAB1662FC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664BA14-9DA0-49AD-9B18-40F0834236E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -948,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -962,16 +962,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -980,15 +976,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1303,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1316,10 +1315,10 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="13" t="s">
         <v>232</v>
       </c>
     </row>
@@ -1334,8 +1333,8 @@
       <c r="E4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="23" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="14" t="s">
         <v>233</v>
       </c>
     </row>
@@ -1350,15 +1349,15 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1368,8 +1367,8 @@
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="14" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1388,7 +1387,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1400,7 +1399,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +1411,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1437,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1449,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1488,7 +1487,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1550,7 +1549,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1611,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
@@ -1674,7 +1673,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="8" t="s">
         <v>45</v>
       </c>
@@ -1736,7 +1735,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
@@ -1762,7 +1761,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="8" t="s">
         <v>53</v>
       </c>
@@ -1788,7 +1787,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1814,7 +1813,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="8" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1825,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1840,7 +1839,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="7" t="s">
         <v>68</v>
       </c>
@@ -1852,7 +1851,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1878,7 +1877,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
@@ -1890,7 +1889,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1903,8 +1902,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
       <c r="C49" s="8" t="s">
         <v>74</v>
       </c>
@@ -1915,8 +1914,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -1929,8 +1928,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="16"/>
       <c r="C51" s="8" t="s">
         <v>78</v>
       </c>
@@ -1941,8 +1940,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="13" t="s">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1954,10 +1953,9 @@
       <c r="E52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="16"/>
       <c r="C53" s="8" t="s">
         <v>83</v>
       </c>
@@ -1967,10 +1965,9 @@
       <c r="E53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="13" t="s">
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -1983,8 +1980,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="14"/>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="16"/>
       <c r="C55" s="8" t="s">
         <v>85</v>
       </c>
@@ -1995,8 +1992,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="13" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2009,8 +2006,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="14"/>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="16"/>
       <c r="C57" s="8" t="s">
         <v>87</v>
       </c>
@@ -2021,8 +2018,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2035,8 +2032,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="16"/>
       <c r="C59" s="8" t="s">
         <v>90</v>
       </c>
@@ -2047,8 +2044,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="13" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2061,7 +2058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="7" t="s">
         <v>92</v>
@@ -2072,9 +2069,8 @@
       <c r="E61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="17"/>
       <c r="C62" s="7" t="s">
         <v>93</v>
@@ -2086,7 +2082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="17"/>
       <c r="C63" s="7" t="s">
         <v>94</v>
@@ -2098,7 +2094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="17"/>
       <c r="C64" s="7" t="s">
         <v>95</v>
@@ -2110,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="17"/>
       <c r="C65" s="7" t="s">
         <v>96</v>
@@ -2122,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="17"/>
       <c r="C66" s="7" t="s">
         <v>97</v>
@@ -2134,8 +2130,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="14"/>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="16"/>
       <c r="C67" s="8" t="s">
         <v>98</v>
       </c>
@@ -2146,8 +2142,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -2160,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="17"/>
       <c r="C69" s="7" t="s">
         <v>104</v>
@@ -2171,9 +2167,8 @@
       <c r="E69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
       <c r="C70" s="7" t="s">
         <v>105</v>
@@ -2184,10 +2179,9 @@
       <c r="E70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="16"/>
       <c r="C71" s="8" t="s">
         <v>106</v>
       </c>
@@ -2197,9 +2191,8 @@
       <c r="E71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="18" t="s">
         <v>107</v>
       </c>
@@ -2213,8 +2206,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="19"/>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="20"/>
       <c r="C73" s="8" t="s">
         <v>109</v>
       </c>
@@ -2225,8 +2218,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="13" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -2239,7 +2232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="7" t="s">
         <v>112</v>
@@ -2251,7 +2244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="7" t="s">
         <v>113</v>
@@ -2263,7 +2256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="17"/>
       <c r="C77" s="7" t="s">
         <v>114</v>
@@ -2275,7 +2268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="17"/>
       <c r="C78" s="7" t="s">
         <v>115</v>
@@ -2287,7 +2280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="17"/>
       <c r="C79" s="7" t="s">
         <v>116</v>
@@ -2299,7 +2292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="17"/>
       <c r="C80" s="7" t="s">
         <v>117</v>
@@ -2311,8 +2304,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="14"/>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="16"/>
       <c r="C81" s="8" t="s">
         <v>118</v>
       </c>
@@ -2323,7 +2316,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="18" t="s">
         <v>119</v>
       </c>
@@ -2336,10 +2329,9 @@
       <c r="E82" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="19"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
       <c r="C83" s="8" t="s">
         <v>121</v>
       </c>
@@ -2350,8 +2342,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="13" t="s">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -2364,7 +2356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="17"/>
       <c r="C85" s="7" t="s">
         <v>124</v>
@@ -2376,7 +2368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="17"/>
       <c r="C86" s="7" t="s">
         <v>125</v>
@@ -2388,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="17"/>
       <c r="C87" s="7" t="s">
         <v>126</v>
@@ -2400,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="17"/>
       <c r="C88" s="7" t="s">
         <v>127</v>
@@ -2412,7 +2404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="7" t="s">
         <v>128</v>
@@ -2424,7 +2416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="17"/>
       <c r="C90" s="7" t="s">
         <v>129</v>
@@ -2436,8 +2428,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="16"/>
       <c r="C91" s="8" t="s">
         <v>130</v>
       </c>
@@ -2448,8 +2440,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="13" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -2462,7 +2454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="17"/>
       <c r="C93" s="7" t="s">
         <v>133</v>
@@ -2474,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="17"/>
       <c r="C94" s="7" t="s">
         <v>134</v>
@@ -2486,7 +2478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="17"/>
       <c r="C95" s="7" t="s">
         <v>135</v>
@@ -2498,7 +2490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="17"/>
       <c r="C96" s="7" t="s">
         <v>136</v>
@@ -2510,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="17"/>
       <c r="C97" s="7" t="s">
         <v>137</v>
@@ -2522,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
       <c r="C98" s="7" t="s">
         <v>138</v>
@@ -2534,8 +2526,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="14"/>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="16"/>
       <c r="C99" s="8" t="s">
         <v>139</v>
       </c>
@@ -2546,7 +2538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="18" t="s">
         <v>140</v>
       </c>
@@ -2560,8 +2552,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="19"/>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="20"/>
       <c r="C101" s="8" t="s">
         <v>142</v>
       </c>
@@ -2572,8 +2564,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="13" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="15" t="s">
         <v>143</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -2585,9 +2577,8 @@
       <c r="E102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F102" s="21"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="17"/>
       <c r="C103" s="7" t="s">
         <v>145</v>
@@ -2599,7 +2590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="17"/>
       <c r="C104" s="7" t="s">
         <v>146</v>
@@ -2611,8 +2602,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="14"/>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="16"/>
       <c r="C105" s="8" t="s">
         <v>147</v>
       </c>
@@ -2623,8 +2614,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="13" t="s">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="15" t="s">
         <v>148</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -2636,9 +2627,8 @@
       <c r="E106" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F106" s="21"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="17"/>
       <c r="C107" s="7" t="s">
         <v>150</v>
@@ -2650,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="17"/>
       <c r="C108" s="7" t="s">
         <v>151</v>
@@ -2662,8 +2652,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="14"/>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="16"/>
       <c r="C109" s="8" t="s">
         <v>152</v>
       </c>
@@ -2674,8 +2664,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="13" t="s">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="15" t="s">
         <v>153</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -2688,8 +2678,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="14"/>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="16"/>
       <c r="C111" s="8" t="s">
         <v>155</v>
       </c>
@@ -2700,8 +2690,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="13" t="s">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="15" t="s">
         <v>156</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -2715,7 +2705,7 @@
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="14"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="8" t="s">
         <v>158</v>
       </c>
@@ -2727,7 +2717,7 @@
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="15" t="s">
         <v>159</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -2741,7 +2731,7 @@
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="14"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="8" t="s">
         <v>161</v>
       </c>
@@ -2753,7 +2743,7 @@
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="15" t="s">
         <v>162</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -2767,7 +2757,7 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="14"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="8" t="s">
         <v>164</v>
       </c>
@@ -2779,7 +2769,7 @@
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="21" t="s">
         <v>165</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -2793,7 +2783,7 @@
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="15"/>
+      <c r="B119" s="21"/>
       <c r="C119" t="s">
         <v>176</v>
       </c>
@@ -2805,7 +2795,7 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="15"/>
+      <c r="B120" s="21"/>
       <c r="C120" t="s">
         <v>175</v>
       </c>
@@ -2817,7 +2807,7 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="15"/>
+      <c r="B121" s="21"/>
       <c r="C121" t="s">
         <v>174</v>
       </c>
@@ -2829,7 +2819,7 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="15"/>
+      <c r="B122" s="21"/>
       <c r="C122" t="s">
         <v>173</v>
       </c>
@@ -2841,7 +2831,7 @@
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="15"/>
+      <c r="B123" s="21"/>
       <c r="C123" t="s">
         <v>172</v>
       </c>
@@ -2853,7 +2843,7 @@
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="15"/>
+      <c r="B124" s="21"/>
       <c r="C124" t="s">
         <v>166</v>
       </c>
@@ -2865,7 +2855,7 @@
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="15"/>
+      <c r="B125" s="21"/>
       <c r="C125" t="s">
         <v>167</v>
       </c>
@@ -2877,7 +2867,7 @@
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="15"/>
+      <c r="B126" s="21"/>
       <c r="C126" t="s">
         <v>168</v>
       </c>
@@ -2889,7 +2879,7 @@
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="15"/>
+      <c r="B127" s="21"/>
       <c r="C127" t="s">
         <v>169</v>
       </c>
@@ -2901,7 +2891,7 @@
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="15"/>
+      <c r="B128" s="21"/>
       <c r="C128" t="s">
         <v>170</v>
       </c>
@@ -2913,7 +2903,7 @@
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="15"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="8" t="s">
         <v>171</v>
       </c>
@@ -2925,7 +2915,7 @@
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="22" t="s">
         <v>178</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -2939,7 +2929,7 @@
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="16"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="7" t="s">
         <v>180</v>
       </c>
@@ -2951,7 +2941,7 @@
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="16"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="7" t="s">
         <v>181</v>
       </c>
@@ -2963,7 +2953,7 @@
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="16"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="7" t="s">
         <v>182</v>
       </c>
@@ -2975,7 +2965,7 @@
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="16"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="7" t="s">
         <v>183</v>
       </c>
@@ -2987,7 +2977,7 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="16"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="7" t="s">
         <v>184</v>
       </c>
@@ -2999,7 +2989,7 @@
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="16"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="7" t="s">
         <v>185</v>
       </c>
@@ -3011,7 +3001,7 @@
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="16"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="7" t="s">
         <v>186</v>
       </c>
@@ -3023,7 +3013,7 @@
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="16"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="7" t="s">
         <v>187</v>
       </c>
@@ -3035,7 +3025,7 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="16"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="7" t="s">
         <v>188</v>
       </c>
@@ -3047,7 +3037,7 @@
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="16"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="7" t="s">
         <v>189</v>
       </c>
@@ -3059,7 +3049,7 @@
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="16"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="8" t="s">
         <v>190</v>
       </c>
@@ -3128,11 +3118,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B129"/>
+    <mergeCell ref="B130:B141"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B91"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
@@ -3149,21 +3149,11 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B129"/>
-    <mergeCell ref="B130:B141"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/comp_inst.xlsx
+++ b/comp_inst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664BA14-9DA0-49AD-9B18-40F0834236E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A7098-1462-435F-A349-182EEE40D2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="234">
   <si>
     <t>Simulador mc88110</t>
   </si>
@@ -725,25 +725,19 @@
     <t>Macros</t>
   </si>
   <si>
-    <t>LEA</t>
-  </si>
-  <si>
-    <t>LOAD</t>
-  </si>
-  <si>
     <t>Instrucciones</t>
   </si>
   <si>
-    <t>lui rD, imm20</t>
-  </si>
-  <si>
-    <t>ori rD, rD, imm12</t>
-  </si>
-  <si>
-    <t>LEA(rD)</t>
-  </si>
-  <si>
-    <t>lw rD, 0(rD)</t>
+    <t>lw reg, 0(reg)</t>
+  </si>
+  <si>
+    <t>la reg, ETIQ</t>
+  </si>
+  <si>
+    <t>LEA(reg, ETIQ)</t>
+  </si>
+  <si>
+    <t>LOAD(reg, ETIQ)</t>
   </si>
 </sst>
 </file>
@@ -759,12 +753,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -948,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -961,13 +967,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -976,18 +985,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,31 +1288,31 @@
     <col min="2" max="2" width="7.5546875" customWidth="1"/>
     <col min="3" max="4" width="35.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="8" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>231</v>
+      <c r="I2" s="23" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1315,15 +1324,15 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>232</v>
       </c>
+      <c r="I3" s="24" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1333,13 +1342,11 @@
       <c r="E4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="14" t="s">
-        <v>233</v>
-      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1349,15 +1356,15 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>234</v>
+      <c r="H5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1367,13 +1374,13 @@
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14" t="s">
-        <v>235</v>
+      <c r="H6" s="13"/>
+      <c r="I6" s="25" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1411,7 +1418,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +1430,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1437,7 +1444,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1456,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1463,7 +1470,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1482,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1494,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1499,7 +1506,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1513,7 +1520,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1525,7 +1532,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1544,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1549,7 +1556,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1561,7 +1568,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1575,7 +1582,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
@@ -1587,7 +1594,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="7" t="s">
         <v>37</v>
       </c>
@@ -1599,7 +1606,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
@@ -1611,7 +1618,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
@@ -1623,7 +1630,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1637,7 +1644,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
@@ -1649,7 +1656,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1668,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="7" t="s">
         <v>44</v>
       </c>
@@ -1673,7 +1680,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="8" t="s">
         <v>45</v>
       </c>
@@ -1685,7 +1692,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -1699,7 +1706,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
       </c>
@@ -1711,7 +1718,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="7" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1730,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="7" t="s">
         <v>50</v>
       </c>
@@ -1735,7 +1742,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
@@ -1747,7 +1754,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -1761,7 +1768,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="8" t="s">
         <v>53</v>
       </c>
@@ -1787,7 +1794,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1801,7 +1808,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="7" t="s">
         <v>64</v>
       </c>
@@ -1813,7 +1820,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="8" t="s">
         <v>65</v>
       </c>
@@ -1825,7 +1832,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -1839,7 +1846,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="7" t="s">
         <v>68</v>
       </c>
@@ -1851,7 +1858,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1865,7 +1872,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="17"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="7" t="s">
         <v>71</v>
       </c>
@@ -1877,7 +1884,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
@@ -1889,7 +1896,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -1903,7 +1910,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="8" t="s">
         <v>74</v>
       </c>
@@ -1915,7 +1922,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -1929,7 +1936,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="16"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="8" t="s">
         <v>78</v>
       </c>
@@ -1941,7 +1948,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1955,7 +1962,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="16"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="8" t="s">
         <v>83</v>
       </c>
@@ -1967,7 +1974,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -1981,7 +1988,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="16"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="8" t="s">
         <v>85</v>
       </c>
@@ -1993,7 +2000,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -2007,7 +2014,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="8" t="s">
         <v>87</v>
       </c>
@@ -2019,7 +2026,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2033,7 +2040,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="16"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="8" t="s">
         <v>90</v>
       </c>
@@ -2045,7 +2052,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -2059,7 +2066,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="7" t="s">
         <v>92</v>
       </c>
@@ -2071,7 +2078,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="17"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="7" t="s">
         <v>93</v>
       </c>
@@ -2083,7 +2090,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="17"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="7" t="s">
         <v>94</v>
       </c>
@@ -2095,7 +2102,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="17"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="7" t="s">
         <v>95</v>
       </c>
@@ -2107,7 +2114,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="7" t="s">
         <v>96</v>
       </c>
@@ -2119,7 +2126,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="7" t="s">
         <v>97</v>
       </c>
@@ -2131,7 +2138,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="16"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="8" t="s">
         <v>98</v>
       </c>
@@ -2143,7 +2150,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -2157,7 +2164,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="17"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="7" t="s">
         <v>104</v>
       </c>
@@ -2169,7 +2176,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="17"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="7" t="s">
         <v>105</v>
       </c>
@@ -2181,7 +2188,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="16"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="8" t="s">
         <v>106</v>
       </c>
@@ -2193,7 +2200,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -2207,7 +2214,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="8" t="s">
         <v>109</v>
       </c>
@@ -2219,7 +2226,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -2233,7 +2240,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="17"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="7" t="s">
         <v>112</v>
       </c>
@@ -2245,7 +2252,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="17"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="7" t="s">
         <v>113</v>
       </c>
@@ -2257,7 +2264,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="7" t="s">
         <v>114</v>
       </c>
@@ -2269,7 +2276,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="17"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="7" t="s">
         <v>115</v>
       </c>
@@ -2281,7 +2288,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="17"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="7" t="s">
         <v>116</v>
       </c>
@@ -2293,7 +2300,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="17"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="7" t="s">
         <v>117</v>
       </c>
@@ -2305,7 +2312,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="16"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="8" t="s">
         <v>118</v>
       </c>
@@ -2317,7 +2324,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -2331,7 +2338,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="20"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="8" t="s">
         <v>121</v>
       </c>
@@ -2343,7 +2350,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -2357,7 +2364,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="17"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="7" t="s">
         <v>124</v>
       </c>
@@ -2369,7 +2376,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="17"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="7" t="s">
         <v>125</v>
       </c>
@@ -2381,7 +2388,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="17"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="7" t="s">
         <v>126</v>
       </c>
@@ -2393,7 +2400,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="17"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="7" t="s">
         <v>127</v>
       </c>
@@ -2405,7 +2412,7 @@
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="17"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="7" t="s">
         <v>128</v>
       </c>
@@ -2417,7 +2424,7 @@
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="17"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="7" t="s">
         <v>129</v>
       </c>
@@ -2429,7 +2436,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B91" s="16"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="8" t="s">
         <v>130</v>
       </c>
@@ -2441,7 +2448,7 @@
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -2455,7 +2462,7 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="7" t="s">
         <v>133</v>
       </c>
@@ -2467,7 +2474,7 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="17"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="7" t="s">
         <v>134</v>
       </c>
@@ -2479,7 +2486,7 @@
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="17"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="7" t="s">
         <v>135</v>
       </c>
@@ -2491,7 +2498,7 @@
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="17"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="7" t="s">
         <v>136</v>
       </c>
@@ -2503,7 +2510,7 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="7" t="s">
         <v>137</v>
       </c>
@@ -2515,7 +2522,7 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="17"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="7" t="s">
         <v>138</v>
       </c>
@@ -2527,7 +2534,7 @@
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B99" s="16"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="8" t="s">
         <v>139</v>
       </c>
@@ -2539,7 +2546,7 @@
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>140</v>
       </c>
       <c r="C100" s="6" t="s">
@@ -2553,7 +2560,7 @@
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B101" s="20"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="8" t="s">
         <v>142</v>
       </c>
@@ -2565,7 +2572,7 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -2579,7 +2586,7 @@
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="17"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="7" t="s">
         <v>145</v>
       </c>
@@ -2591,7 +2598,7 @@
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="17"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="7" t="s">
         <v>146</v>
       </c>
@@ -2603,7 +2610,7 @@
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="16"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="8" t="s">
         <v>147</v>
       </c>
@@ -2615,7 +2622,7 @@
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -2629,7 +2636,7 @@
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="17"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="7" t="s">
         <v>150</v>
       </c>
@@ -2641,7 +2648,7 @@
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="17"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="7" t="s">
         <v>151</v>
       </c>
@@ -2653,7 +2660,7 @@
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="16"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="8" t="s">
         <v>152</v>
       </c>
@@ -2665,7 +2672,7 @@
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -2679,7 +2686,7 @@
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="16"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="8" t="s">
         <v>155</v>
       </c>
@@ -2691,7 +2698,7 @@
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -2705,7 +2712,7 @@
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="16"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="8" t="s">
         <v>158</v>
       </c>
@@ -2717,7 +2724,7 @@
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -2731,7 +2738,7 @@
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="16"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="8" t="s">
         <v>161</v>
       </c>
@@ -2743,7 +2750,7 @@
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -2757,7 +2764,7 @@
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="16"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="8" t="s">
         <v>164</v>
       </c>
@@ -2769,7 +2776,7 @@
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -2783,7 +2790,7 @@
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="21"/>
+      <c r="B119" s="14"/>
       <c r="C119" t="s">
         <v>176</v>
       </c>
@@ -2795,7 +2802,7 @@
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="21"/>
+      <c r="B120" s="14"/>
       <c r="C120" t="s">
         <v>175</v>
       </c>
@@ -2807,7 +2814,7 @@
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="21"/>
+      <c r="B121" s="14"/>
       <c r="C121" t="s">
         <v>174</v>
       </c>
@@ -2819,7 +2826,7 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="21"/>
+      <c r="B122" s="14"/>
       <c r="C122" t="s">
         <v>173</v>
       </c>
@@ -2831,7 +2838,7 @@
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="21"/>
+      <c r="B123" s="14"/>
       <c r="C123" t="s">
         <v>172</v>
       </c>
@@ -2843,7 +2850,7 @@
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="21"/>
+      <c r="B124" s="14"/>
       <c r="C124" t="s">
         <v>166</v>
       </c>
@@ -2855,7 +2862,7 @@
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="21"/>
+      <c r="B125" s="14"/>
       <c r="C125" t="s">
         <v>167</v>
       </c>
@@ -2867,7 +2874,7 @@
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="21"/>
+      <c r="B126" s="14"/>
       <c r="C126" t="s">
         <v>168</v>
       </c>
@@ -2879,7 +2886,7 @@
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="21"/>
+      <c r="B127" s="14"/>
       <c r="C127" t="s">
         <v>169</v>
       </c>
@@ -2891,7 +2898,7 @@
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="21"/>
+      <c r="B128" s="14"/>
       <c r="C128" t="s">
         <v>170</v>
       </c>
@@ -2903,7 +2910,7 @@
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="21"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="8" t="s">
         <v>171</v>
       </c>
@@ -2915,7 +2922,7 @@
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C130" s="6" t="s">
@@ -2929,7 +2936,7 @@
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="22"/>
+      <c r="B131" s="15"/>
       <c r="C131" s="7" t="s">
         <v>180</v>
       </c>
@@ -2941,7 +2948,7 @@
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="22"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="7" t="s">
         <v>181</v>
       </c>
@@ -2953,7 +2960,7 @@
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="22"/>
+      <c r="B133" s="15"/>
       <c r="C133" s="7" t="s">
         <v>182</v>
       </c>
@@ -2965,7 +2972,7 @@
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="22"/>
+      <c r="B134" s="15"/>
       <c r="C134" s="7" t="s">
         <v>183</v>
       </c>
@@ -2977,7 +2984,7 @@
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="22"/>
+      <c r="B135" s="15"/>
       <c r="C135" s="7" t="s">
         <v>184</v>
       </c>
@@ -2989,7 +2996,7 @@
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="22"/>
+      <c r="B136" s="15"/>
       <c r="C136" s="7" t="s">
         <v>185</v>
       </c>
@@ -3001,7 +3008,7 @@
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="22"/>
+      <c r="B137" s="15"/>
       <c r="C137" s="7" t="s">
         <v>186</v>
       </c>
@@ -3013,7 +3020,7 @@
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="22"/>
+      <c r="B138" s="15"/>
       <c r="C138" s="7" t="s">
         <v>187</v>
       </c>
@@ -3025,7 +3032,7 @@
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="22"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="7" t="s">
         <v>188</v>
       </c>
@@ -3037,7 +3044,7 @@
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="22"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="7" t="s">
         <v>189</v>
       </c>
@@ -3049,7 +3056,7 @@
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="22"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="8" t="s">
         <v>190</v>
       </c>
@@ -3118,21 +3125,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B129"/>
-    <mergeCell ref="B130:B141"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B58:B59"/>
@@ -3149,11 +3146,21 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B129"/>
+    <mergeCell ref="B130:B141"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
